--- a/output2/【河洛話注音】金剛般若波羅蜜經015。持經功德分第十五.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經015。持經功德分第十五.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4058B922-FD83-4782-9950-2EE75B4057DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B266FFFD-5BB2-45EF-9C2C-6899AEEC69F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="569">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1276,372 +1276,6 @@
     <t>應</t>
   </si>
   <si>
-    <t>hun1</t>
-  </si>
-  <si>
-    <t>ㄏㄨㄣˉ</t>
-  </si>
-  <si>
-    <t>te7</t>
-  </si>
-  <si>
-    <t>ㄉㆤ˫</t>
-  </si>
-  <si>
-    <t>sip8</t>
-  </si>
-  <si>
-    <t>ㄒ一ㆴ˙</t>
-  </si>
-  <si>
-    <t>su1</t>
-  </si>
-  <si>
-    <t>ㄙㄨˉ</t>
-  </si>
-  <si>
-    <t>phoo5</t>
-  </si>
-  <si>
-    <t>ㄆㆦˊ</t>
-  </si>
-  <si>
-    <t>the5</t>
-  </si>
-  <si>
-    <t>ㄊㆤˊ</t>
-  </si>
-  <si>
-    <t>bun5</t>
-  </si>
-  <si>
-    <t>ㆠㄨㄣˊ</t>
-  </si>
-  <si>
-    <t>suat4</t>
-  </si>
-  <si>
-    <t>ㄙㄨㄚㆵ</t>
-  </si>
-  <si>
-    <t>si6</t>
-  </si>
-  <si>
-    <t>ㄒㄧˋ</t>
-  </si>
-  <si>
-    <t>king1</t>
-  </si>
-  <si>
-    <t>ㄍㄧㄥˉ</t>
-  </si>
-  <si>
-    <t>kai2</t>
-  </si>
-  <si>
-    <t>ㄍㄞˋ</t>
-  </si>
-  <si>
-    <t>gi7</t>
-  </si>
-  <si>
-    <t>ㆣㄧ˫</t>
-  </si>
-  <si>
-    <t>cu3</t>
-  </si>
-  <si>
-    <t>ㄘㄨ˪</t>
-  </si>
-  <si>
-    <t>ji5</t>
-  </si>
-  <si>
-    <t>ㆢㄧˊ</t>
-  </si>
-  <si>
-    <t>gian5</t>
-  </si>
-  <si>
-    <t>ㆣㄧㄢˊ</t>
-  </si>
-  <si>
-    <t>iu2</t>
-  </si>
-  <si>
-    <t>ㄧㄨˋ</t>
-  </si>
-  <si>
-    <t>se3</t>
-  </si>
-  <si>
-    <t>ㄙㆤ˪</t>
-  </si>
-  <si>
-    <t>ju5</t>
-  </si>
-  <si>
-    <t>ㆡㄨˊ</t>
-  </si>
-  <si>
-    <t>tian2</t>
-  </si>
-  <si>
-    <t>ㄉㄧㄢˋ</t>
-  </si>
-  <si>
-    <t>ngoo2</t>
-  </si>
-  <si>
-    <t>ㄫㆦˋ</t>
-  </si>
-  <si>
-    <t>sik4</t>
-  </si>
-  <si>
-    <t>ㄒㄧㆻ</t>
-  </si>
-  <si>
-    <t>lai5</t>
-  </si>
-  <si>
-    <t>ㄌㄞˊ</t>
-  </si>
-  <si>
-    <t>soo2</t>
-  </si>
-  <si>
-    <t>ㄙㆦˋ</t>
-  </si>
-  <si>
-    <t>tit4</t>
-  </si>
-  <si>
-    <t>ㄉㄧㆵ</t>
-  </si>
-  <si>
-    <t>zi1</t>
-  </si>
-  <si>
-    <t>ㄐㄧˉ</t>
-  </si>
-  <si>
-    <t>jiok8</t>
-  </si>
-  <si>
-    <t>ㆢㄧㆦㆻ˙</t>
-  </si>
-  <si>
-    <t>hok8</t>
-  </si>
-  <si>
-    <t>ㄏㆦㆻ˙</t>
-  </si>
-  <si>
-    <t>jin5</t>
-  </si>
-  <si>
-    <t>ㆢㄧㄣˊ</t>
-  </si>
-  <si>
-    <t>sin3</t>
-  </si>
-  <si>
-    <t>ㄒㄧㄣ˪</t>
-  </si>
-  <si>
-    <t>sim1</t>
-  </si>
-  <si>
-    <t>ㄒㄧㆬˉ</t>
-  </si>
-  <si>
-    <t>cing1</t>
-  </si>
-  <si>
-    <t>ㄑㄧㄥˉ</t>
-  </si>
-  <si>
-    <t>zik4</t>
-  </si>
-  <si>
-    <t>ㄐㄧㆻ</t>
-  </si>
-  <si>
-    <t>sing1</t>
-  </si>
-  <si>
-    <t>ㄒㄧㄥˉ</t>
-  </si>
-  <si>
-    <t>tong1</t>
-  </si>
-  <si>
-    <t>ㄉㆲˉ</t>
-  </si>
-  <si>
-    <t>ti1</t>
-  </si>
-  <si>
-    <t>ㄉㄧˉ</t>
-  </si>
-  <si>
-    <t>ziu7</t>
-  </si>
-  <si>
-    <t>ㄐㄧㄨ˫</t>
-  </si>
-  <si>
-    <t>it4</t>
-  </si>
-  <si>
-    <t>ㄧㆵ</t>
-  </si>
-  <si>
-    <t>kang1</t>
-  </si>
-  <si>
-    <t>ㄍㄤˉ</t>
-  </si>
-  <si>
-    <t>tik4</t>
-  </si>
-  <si>
-    <t>ㄉㄧㆻ</t>
-  </si>
-  <si>
-    <t>zia2</t>
-  </si>
-  <si>
-    <t>ㄐㄧㄚˋ</t>
-  </si>
-  <si>
-    <t>koo3</t>
-  </si>
-  <si>
-    <t>ㄍㆦ˪</t>
-  </si>
-  <si>
-    <t>siu7</t>
-  </si>
-  <si>
-    <t>ㄒㄧㄨ˫</t>
-  </si>
-  <si>
-    <t>ci5</t>
-  </si>
-  <si>
-    <t>ㄑㄧˊ</t>
-  </si>
-  <si>
-    <t>put4</t>
-  </si>
-  <si>
-    <t>ㄅㄨㆵ</t>
-  </si>
-  <si>
-    <t>ui5</t>
-  </si>
-  <si>
-    <t>ㄨㄧˊ</t>
-  </si>
-  <si>
-    <t>hoo7</t>
-  </si>
-  <si>
-    <t>ㄏㆦ˫</t>
-  </si>
-  <si>
-    <t>pik4</t>
-  </si>
-  <si>
-    <t>ㄅㄧㆻ</t>
-  </si>
-  <si>
-    <t>ki5</t>
-  </si>
-  <si>
-    <t>ㄍㄧˊ</t>
-  </si>
-  <si>
-    <t>ziong3</t>
-  </si>
-  <si>
-    <t>ㄐㄧㆲ˪</t>
-  </si>
-  <si>
-    <t>ho5</t>
-  </si>
-  <si>
-    <t>ㄏㄜˊ</t>
-  </si>
-  <si>
-    <t>i2</t>
-  </si>
-  <si>
-    <t>ㄧˋ</t>
-  </si>
-  <si>
-    <t>cu2</t>
-  </si>
-  <si>
-    <t>ㄘㄨˋ</t>
-  </si>
-  <si>
-    <t>bu5</t>
-  </si>
-  <si>
-    <t>ㆠㄨˊ</t>
-  </si>
-  <si>
-    <t>ce3</t>
-  </si>
-  <si>
-    <t>ㄘㆤ˪</t>
-  </si>
-  <si>
-    <t>zu1</t>
-  </si>
-  <si>
-    <t>ㄗㄨˉ</t>
-  </si>
-  <si>
-    <t>poo3</t>
-  </si>
-  <si>
-    <t>ㄅㆦ˪</t>
-  </si>
-  <si>
-    <t>lo5</t>
-  </si>
-  <si>
-    <t>ㄌㄜˊ</t>
-  </si>
-  <si>
-    <t>sin1</t>
-  </si>
-  <si>
-    <t>ㄒㄧㄣˉ</t>
-  </si>
-  <si>
-    <t>u5</t>
-  </si>
-  <si>
-    <t>ㄨˊ</t>
-  </si>
-  <si>
-    <t>in3</t>
-  </si>
-  <si>
-    <t>ㄧㄣ˪</t>
-  </si>
-  <si>
-    <t>sing5</t>
-  </si>
-  <si>
-    <t>ㄒㄧㄥˊ</t>
-  </si>
-  <si>
     <t>持經功德分第十五
 「須菩提！若有善男子、善女人，初日分以恆河沙等身布施；中日分復以恆河沙等身布施；後日分亦以恆河沙等身布施，如是無量百千萬億劫，以身布施。
 若復有人，聞此經典，信心不逆，其福勝彼。何況書寫、受持、讀誦、為人解說。
@@ -1662,559 +1296,1196 @@
     <t>女</t>
   </si>
   <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>恆</t>
+  </si>
+  <si>
+    <t>河</t>
+  </si>
+  <si>
+    <t>沙</t>
+  </si>
+  <si>
+    <t>等</t>
+  </si>
+  <si>
+    <t>布</t>
+  </si>
+  <si>
+    <t>施</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>亦</t>
+  </si>
+  <si>
+    <t>量</t>
+  </si>
+  <si>
+    <t>千</t>
+  </si>
+  <si>
+    <t>萬</t>
+  </si>
+  <si>
+    <t>億</t>
+  </si>
+  <si>
+    <t>劫</t>
+  </si>
+  <si>
+    <t>逆</t>
+  </si>
+  <si>
+    <t>福</t>
+  </si>
+  <si>
+    <t>勝</t>
+  </si>
+  <si>
+    <t>彼</t>
+  </si>
+  <si>
+    <t>況</t>
+  </si>
+  <si>
+    <t>讀</t>
+  </si>
+  <si>
+    <t>誦</t>
+  </si>
+  <si>
+    <t>可</t>
+  </si>
+  <si>
+    <t>思</t>
+  </si>
+  <si>
+    <t>議</t>
+  </si>
+  <si>
+    <t>稱</t>
+  </si>
+  <si>
+    <t>邊</t>
+  </si>
+  <si>
+    <t>發</t>
+  </si>
+  <si>
+    <t>大</t>
+  </si>
+  <si>
+    <t>乘</t>
+  </si>
+  <si>
+    <t>最</t>
+  </si>
+  <si>
+    <t>上</t>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
+    <t>悉</t>
+  </si>
+  <si>
+    <t>見</t>
+  </si>
+  <si>
+    <t>皆</t>
+  </si>
+  <si>
+    <t>荷</t>
+  </si>
+  <si>
+    <t>阿</t>
+  </si>
+  <si>
+    <t>耨</t>
+  </si>
+  <si>
+    <t>多</t>
+  </si>
+  <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>藐</t>
+  </si>
+  <si>
+    <t>小</t>
+  </si>
+  <si>
+    <t>法</t>
+  </si>
+  <si>
+    <t>著</t>
+  </si>
+  <si>
+    <t>在</t>
+  </si>
+  <si>
+    <t>處</t>
+  </si>
+  <si>
+    <t>天</t>
+  </si>
+  <si>
+    <t>修</t>
+  </si>
+  <si>
+    <t>供</t>
+  </si>
+  <si>
+    <t>養</t>
+  </si>
+  <si>
+    <t>敬</t>
+  </si>
+  <si>
+    <t>作</t>
+  </si>
+  <si>
+    <t>禮</t>
+  </si>
+  <si>
+    <t>圍</t>
+  </si>
+  <si>
+    <t>華</t>
+  </si>
+  <si>
+    <t>香</t>
+  </si>
+  <si>
     <t>初</t>
-  </si>
-  <si>
-    <t>日</t>
-  </si>
-  <si>
-    <t>恆</t>
-  </si>
-  <si>
-    <t>河</t>
-  </si>
-  <si>
-    <t>沙</t>
-  </si>
-  <si>
-    <t>等</t>
-  </si>
-  <si>
-    <t>布</t>
-  </si>
-  <si>
-    <t>施</t>
-  </si>
-  <si>
-    <t>中</t>
-  </si>
-  <si>
-    <t>亦</t>
-  </si>
-  <si>
-    <t>量</t>
-  </si>
-  <si>
-    <t>千</t>
-  </si>
-  <si>
-    <t>萬</t>
-  </si>
-  <si>
-    <t>億</t>
-  </si>
-  <si>
-    <t>劫</t>
-  </si>
-  <si>
-    <t>逆</t>
-  </si>
-  <si>
-    <t>福</t>
-  </si>
-  <si>
-    <t>勝</t>
-  </si>
-  <si>
-    <t>彼</t>
-  </si>
-  <si>
-    <t>況</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>書</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>寫</t>
-  </si>
-  <si>
-    <t>讀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>誦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>要</t>
-  </si>
-  <si>
-    <t>可</t>
-  </si>
-  <si>
-    <t>思</t>
-  </si>
-  <si>
-    <t>議</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>邊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>發</t>
-  </si>
-  <si>
-    <t>大</t>
-  </si>
-  <si>
-    <t>乘</t>
-  </si>
-  <si>
-    <t>最</t>
-  </si>
-  <si>
-    <t>上</t>
-  </si>
-  <si>
-    <t>能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>廣</t>
-  </si>
-  <si>
-    <t>悉</t>
-  </si>
-  <si>
-    <t>見</t>
-  </si>
-  <si>
-    <t>皆</t>
-  </si>
-  <si>
-    <t>荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>擔</t>
-  </si>
-  <si>
-    <t>阿</t>
-  </si>
-  <si>
-    <t>耨</t>
-  </si>
-  <si>
-    <t>多</t>
-  </si>
-  <si>
-    <t>三</t>
-  </si>
-  <si>
-    <t>藐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>樂</t>
-  </si>
-  <si>
-    <t>小</t>
-  </si>
-  <si>
-    <t>法</t>
-  </si>
-  <si>
-    <t>著</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>聽</t>
-  </si>
-  <si>
-    <t>在</t>
-  </si>
-  <si>
-    <t>處</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>間</t>
-  </si>
-  <si>
-    <t>天</t>
-  </si>
-  <si>
-    <t>修</t>
-  </si>
-  <si>
-    <t>供</t>
-  </si>
-  <si>
-    <t>養</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>恭</t>
-  </si>
-  <si>
-    <t>敬</t>
-  </si>
-  <si>
-    <t>作</t>
-  </si>
-  <si>
-    <t>禮</t>
-  </si>
-  <si>
-    <t>圍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>遶</t>
-  </si>
-  <si>
-    <t>華</t>
-  </si>
-  <si>
-    <t>香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>king1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㄥˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>te7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sip8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒ一ㆴ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngoo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄫㆦˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄆㆦˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㆤˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sian3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄒㄧㄢ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lam5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄌㆰˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄗㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄌㄨˋ</t>
-  </si>
-  <si>
-    <t>cere1</t>
-  </si>
-  <si>
-    <t>ㄘˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jin5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㆦˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>jit8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆢㄧㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hing5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄏㄧㄥˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sa1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄙㄚˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ting2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄉㄧㄥˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㆦ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>si1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄒㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tiong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄉㄧㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hoo7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㆦ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ik8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄧㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ju5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆡㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>liong7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄌㄧㆲ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cian1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄑㄧㄢˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ban7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆠㄢ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kiap4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㄧㄚㆴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bun5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄨㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tian2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㄢˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sin3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄣ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sim1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆬˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄨㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gik8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆣㄧㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ki5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄏㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sing3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄒㄧㄥ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pi2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄅㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄏㆲˋ</t>
-  </si>
-  <si>
-    <t>zir1</t>
-  </si>
-  <si>
-    <t>ㄐˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sia2</t>
+  </si>
+  <si>
+    <t>ㄒㄧㄚˋ</t>
+  </si>
+  <si>
+    <t>siu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄨ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>thok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄊㆦㆻ˙</t>
-  </si>
-  <si>
-    <t>iau1</t>
-  </si>
-  <si>
-    <t>ㄧㄠˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siong7</t>
+  </si>
+  <si>
+    <t>ㄒㄧㆲ˫</t>
+  </si>
+  <si>
+    <t>ui5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kai2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄞˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iau3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄠ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄧㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zi1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kho2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄎㄜˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gi7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cing1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧㄥˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pian1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄅㄧㄢˉ</t>
-  </si>
-  <si>
-    <t>puh4</t>
-  </si>
-  <si>
-    <t>ㄅㄨㆷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lai5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄞˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tai7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄉㄞ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sing5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄥˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zia2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄚˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zue3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄗㄨㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>siang7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄒㄧㄤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ling5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄌㄧㄥˊ</t>
-  </si>
-  <si>
-    <t>kng2</t>
-  </si>
-  <si>
-    <t>ㄍㆭˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆲˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ti1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kian3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㄧㄢ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kai1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㄞˉ</t>
-  </si>
-  <si>
-    <t>tann1</t>
-  </si>
-  <si>
-    <t>ㄉㆩˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tit4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄨ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tam1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㆰˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>a1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄚˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>loo7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄌㆦ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>to1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄉㄜˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sam3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄙㆰ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>biau2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆠㄧㄠˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>koo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆦ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ngau7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄫㄠ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sio2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄒㄧㄜˋ</t>
-  </si>
-  <si>
-    <t>huat4</t>
-  </si>
-  <si>
-    <t>ㄏㄨㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tiok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄉㄧㆦㆻ˙</t>
-  </si>
-  <si>
-    <t>thiann1</t>
-  </si>
-  <si>
-    <t>ㄊㄧㆩˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆲ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sing1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄥˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thing3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㄧㄥ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zai6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄗㄞˋ</t>
-  </si>
-  <si>
-    <t>kainn1</t>
-  </si>
-  <si>
-    <t>ㄍㆮˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cu3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㄨ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ce3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>se3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kan1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄢˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>thian1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄊㄧㄢˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>siu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄒㄧㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆦˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄣ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>iong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄧㆲˋ</t>
-  </si>
-  <si>
-    <t>thah4</t>
-  </si>
-  <si>
-    <t>ㄊㄚㆷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thap4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㄚㆴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kiong1</t>
+  </si>
+  <si>
+    <t>ㄍㄧㆲˉ</t>
   </si>
   <si>
     <t>king3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㄧㄥ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄗㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>le2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄌㆤˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiau2</t>
+  </si>
+  <si>
+    <t>ㆢㄧㄠˋ</t>
+  </si>
+  <si>
+    <t>zu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hua3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄏㄨㄚ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hiong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄏㄧㆲˉ</t>
-  </si>
-  <si>
-    <t>san2</t>
-  </si>
-  <si>
-    <t>ㄙㄢˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ji5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>san3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄢ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3968,9 +4239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B2:V166"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="O97" sqref="O97"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
   <cols>
@@ -4028,34 +4297,34 @@
       <c r="S3" s="73"/>
       <c r="T3" s="71"/>
       <c r="V3" s="103" t="s">
-        <v>372</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="65"/>
       <c r="D4" s="100" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E4" s="100" t="s">
-        <v>268</v>
+        <v>329</v>
       </c>
       <c r="F4" s="100" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="G4" s="100" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="H4" s="100" t="s">
-        <v>250</v>
+        <v>335</v>
       </c>
       <c r="I4" s="100" t="s">
-        <v>252</v>
+        <v>337</v>
       </c>
       <c r="J4" s="100" t="s">
-        <v>254</v>
+        <v>339</v>
       </c>
       <c r="K4" s="100" t="s">
-        <v>288</v>
+        <v>341</v>
       </c>
       <c r="L4" s="100"/>
       <c r="M4" s="100"/>
@@ -4109,28 +4378,28 @@
       <c r="B6" s="67"/>
       <c r="C6" s="51"/>
       <c r="D6" s="101" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="E6" s="101" t="s">
-        <v>269</v>
+        <v>330</v>
       </c>
       <c r="F6" s="101" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="G6" s="101" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="H6" s="101" t="s">
-        <v>251</v>
+        <v>336</v>
       </c>
       <c r="I6" s="101" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="J6" s="101" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="K6" s="101" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="L6" s="101"/>
       <c r="M6" s="101"/>
@@ -4168,39 +4437,39 @@
       <c r="C8" s="52"/>
       <c r="D8" s="100"/>
       <c r="E8" s="100" t="s">
-        <v>256</v>
+        <v>343</v>
       </c>
       <c r="F8" s="100" t="s">
-        <v>258</v>
+        <v>345</v>
       </c>
       <c r="G8" s="100" t="s">
-        <v>260</v>
+        <v>347</v>
       </c>
       <c r="H8" s="100"/>
       <c r="I8" s="100" t="s">
-        <v>300</v>
+        <v>349</v>
       </c>
       <c r="J8" s="100" t="s">
-        <v>280</v>
+        <v>351</v>
       </c>
       <c r="K8" s="100" t="s">
-        <v>446</v>
+        <v>353</v>
       </c>
       <c r="L8" s="100" t="s">
-        <v>448</v>
+        <v>355</v>
       </c>
       <c r="M8" s="100" t="s">
-        <v>450</v>
+        <v>357</v>
       </c>
       <c r="N8" s="100"/>
       <c r="O8" s="100" t="s">
-        <v>446</v>
+        <v>353</v>
       </c>
       <c r="P8" s="100" t="s">
-        <v>452</v>
+        <v>359</v>
       </c>
       <c r="Q8" s="100" t="s">
-        <v>304</v>
+        <v>361</v>
       </c>
       <c r="R8" s="100"/>
       <c r="S8" s="53"/>
@@ -4234,22 +4503,22 @@
         <v>193</v>
       </c>
       <c r="K9" s="95" t="s">
-        <v>373</v>
+        <v>251</v>
       </c>
       <c r="L9" s="95" t="s">
-        <v>374</v>
+        <v>252</v>
       </c>
       <c r="M9" s="95" t="s">
-        <v>375</v>
+        <v>253</v>
       </c>
       <c r="N9" s="95" t="s">
         <v>197</v>
       </c>
       <c r="O9" s="95" t="s">
-        <v>373</v>
+        <v>251</v>
       </c>
       <c r="P9" s="95" t="s">
-        <v>376</v>
+        <v>254</v>
       </c>
       <c r="Q9" s="95" t="s">
         <v>198</v>
@@ -4266,39 +4535,39 @@
       <c r="C10" s="52"/>
       <c r="D10" s="101"/>
       <c r="E10" s="101" t="s">
-        <v>257</v>
+        <v>344</v>
       </c>
       <c r="F10" s="101" t="s">
-        <v>259</v>
+        <v>346</v>
       </c>
       <c r="G10" s="101" t="s">
-        <v>261</v>
+        <v>348</v>
       </c>
       <c r="H10" s="101"/>
       <c r="I10" s="101" t="s">
-        <v>301</v>
+        <v>350</v>
       </c>
       <c r="J10" s="101" t="s">
-        <v>281</v>
+        <v>352</v>
       </c>
       <c r="K10" s="101" t="s">
-        <v>447</v>
+        <v>354</v>
       </c>
       <c r="L10" s="101" t="s">
-        <v>449</v>
+        <v>356</v>
       </c>
       <c r="M10" s="101" t="s">
-        <v>451</v>
+        <v>358</v>
       </c>
       <c r="N10" s="101"/>
       <c r="O10" s="101" t="s">
-        <v>447</v>
+        <v>354</v>
       </c>
       <c r="P10" s="101" t="s">
-        <v>453</v>
+        <v>360</v>
       </c>
       <c r="Q10" s="101" t="s">
-        <v>305</v>
+        <v>362</v>
       </c>
       <c r="R10" s="101"/>
       <c r="S10" s="58"/>
@@ -4329,47 +4598,47 @@
       <c r="B12" s="65"/>
       <c r="C12" s="52"/>
       <c r="D12" s="100" t="s">
-        <v>454</v>
+        <v>363</v>
       </c>
       <c r="E12" s="100" t="s">
-        <v>456</v>
+        <v>365</v>
       </c>
       <c r="F12" s="100" t="s">
-        <v>250</v>
+        <v>335</v>
       </c>
       <c r="G12" s="100" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="H12" s="100" t="s">
-        <v>458</v>
+        <v>369</v>
       </c>
       <c r="I12" s="100" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="J12" s="100" t="s">
-        <v>460</v>
+        <v>373</v>
       </c>
       <c r="K12" s="100" t="s">
-        <v>462</v>
+        <v>375</v>
       </c>
       <c r="L12" s="100" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="M12" s="100" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="N12" s="100" t="s">
-        <v>464</v>
+        <v>381</v>
       </c>
       <c r="O12" s="100"/>
       <c r="P12" s="100" t="s">
-        <v>466</v>
+        <v>383</v>
       </c>
       <c r="Q12" s="100" t="s">
-        <v>456</v>
+        <v>365</v>
       </c>
       <c r="R12" s="100" t="s">
-        <v>250</v>
+        <v>335</v>
       </c>
       <c r="S12" s="53"/>
       <c r="V12" s="104"/>
@@ -4381,10 +4650,10 @@
       </c>
       <c r="C13" s="52"/>
       <c r="D13" s="98" t="s">
-        <v>377</v>
+        <v>311</v>
       </c>
       <c r="E13" s="95" t="s">
-        <v>378</v>
+        <v>255</v>
       </c>
       <c r="F13" s="95" t="s">
         <v>168</v>
@@ -4393,34 +4662,34 @@
         <v>216</v>
       </c>
       <c r="H13" s="95" t="s">
-        <v>379</v>
+        <v>256</v>
       </c>
       <c r="I13" s="95" t="s">
-        <v>380</v>
+        <v>257</v>
       </c>
       <c r="J13" s="95" t="s">
-        <v>381</v>
+        <v>258</v>
       </c>
       <c r="K13" s="95" t="s">
-        <v>382</v>
+        <v>259</v>
       </c>
       <c r="L13" s="95" t="s">
         <v>225</v>
       </c>
       <c r="M13" s="95" t="s">
-        <v>383</v>
+        <v>260</v>
       </c>
       <c r="N13" s="95" t="s">
-        <v>384</v>
+        <v>261</v>
       </c>
       <c r="O13" s="95" t="s">
         <v>247</v>
       </c>
       <c r="P13" s="95" t="s">
-        <v>385</v>
+        <v>262</v>
       </c>
       <c r="Q13" s="95" t="s">
-        <v>378</v>
+        <v>255</v>
       </c>
       <c r="R13" s="95" t="s">
         <v>168</v>
@@ -4432,47 +4701,47 @@
       <c r="B14" s="67"/>
       <c r="C14" s="52"/>
       <c r="D14" s="101" t="s">
-        <v>455</v>
+        <v>364</v>
       </c>
       <c r="E14" s="101" t="s">
-        <v>457</v>
+        <v>366</v>
       </c>
       <c r="F14" s="101" t="s">
-        <v>251</v>
+        <v>336</v>
       </c>
       <c r="G14" s="101" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="H14" s="101" t="s">
-        <v>459</v>
+        <v>370</v>
       </c>
       <c r="I14" s="101" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="J14" s="101" t="s">
-        <v>461</v>
+        <v>374</v>
       </c>
       <c r="K14" s="101" t="s">
-        <v>463</v>
+        <v>376</v>
       </c>
       <c r="L14" s="101" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="M14" s="101" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="N14" s="101" t="s">
-        <v>465</v>
+        <v>382</v>
       </c>
       <c r="O14" s="101"/>
       <c r="P14" s="101" t="s">
-        <v>467</v>
+        <v>384</v>
       </c>
       <c r="Q14" s="101" t="s">
-        <v>457</v>
+        <v>366</v>
       </c>
       <c r="R14" s="101" t="s">
-        <v>251</v>
+        <v>336</v>
       </c>
       <c r="S14" s="58"/>
       <c r="V14" s="104"/>
@@ -4502,47 +4771,47 @@
       <c r="B16" s="65"/>
       <c r="C16" s="52"/>
       <c r="D16" s="100" t="s">
-        <v>302</v>
+        <v>385</v>
       </c>
       <c r="E16" s="100" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="F16" s="100" t="s">
-        <v>458</v>
+        <v>369</v>
       </c>
       <c r="G16" s="100" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="H16" s="100" t="s">
-        <v>460</v>
+        <v>373</v>
       </c>
       <c r="I16" s="100" t="s">
-        <v>462</v>
+        <v>375</v>
       </c>
       <c r="J16" s="100" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="K16" s="100" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="L16" s="100" t="s">
-        <v>464</v>
+        <v>381</v>
       </c>
       <c r="M16" s="100"/>
       <c r="N16" s="100" t="s">
-        <v>340</v>
+        <v>387</v>
       </c>
       <c r="O16" s="100" t="s">
-        <v>456</v>
+        <v>365</v>
       </c>
       <c r="P16" s="100" t="s">
-        <v>250</v>
+        <v>335</v>
       </c>
       <c r="Q16" s="100" t="s">
-        <v>468</v>
+        <v>389</v>
       </c>
       <c r="R16" s="100" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="S16" s="53"/>
       <c r="V16" s="104"/>
@@ -4560,25 +4829,25 @@
         <v>216</v>
       </c>
       <c r="F17" s="95" t="s">
-        <v>379</v>
+        <v>256</v>
       </c>
       <c r="G17" s="96" t="s">
-        <v>380</v>
+        <v>257</v>
       </c>
       <c r="H17" s="95" t="s">
-        <v>381</v>
+        <v>258</v>
       </c>
       <c r="I17" s="95" t="s">
-        <v>382</v>
+        <v>259</v>
       </c>
       <c r="J17" s="95" t="s">
         <v>225</v>
       </c>
       <c r="K17" s="95" t="s">
-        <v>383</v>
+        <v>260</v>
       </c>
       <c r="L17" s="95" t="s">
-        <v>384</v>
+        <v>261</v>
       </c>
       <c r="M17" s="95" t="s">
         <v>247</v>
@@ -4587,13 +4856,13 @@
         <v>242</v>
       </c>
       <c r="O17" s="95" t="s">
-        <v>378</v>
+        <v>255</v>
       </c>
       <c r="P17" s="95" t="s">
         <v>168</v>
       </c>
       <c r="Q17" s="95" t="s">
-        <v>386</v>
+        <v>263</v>
       </c>
       <c r="R17" s="95" t="s">
         <v>216</v>
@@ -4605,47 +4874,47 @@
       <c r="B18" s="67"/>
       <c r="C18" s="52"/>
       <c r="D18" s="101" t="s">
-        <v>303</v>
+        <v>386</v>
       </c>
       <c r="E18" s="101" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="F18" s="101" t="s">
-        <v>459</v>
+        <v>370</v>
       </c>
       <c r="G18" s="101" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="H18" s="101" t="s">
-        <v>461</v>
+        <v>374</v>
       </c>
       <c r="I18" s="101" t="s">
-        <v>463</v>
+        <v>376</v>
       </c>
       <c r="J18" s="101" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="K18" s="101" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="L18" s="101" t="s">
-        <v>465</v>
+        <v>382</v>
       </c>
       <c r="M18" s="101"/>
       <c r="N18" s="101" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="O18" s="101" t="s">
-        <v>457</v>
+        <v>366</v>
       </c>
       <c r="P18" s="101" t="s">
-        <v>251</v>
+        <v>336</v>
       </c>
       <c r="Q18" s="101" t="s">
-        <v>469</v>
+        <v>390</v>
       </c>
       <c r="R18" s="101" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="S18" s="58"/>
       <c r="V18" s="104"/>
@@ -4675,47 +4944,47 @@
       <c r="B20" s="65"/>
       <c r="C20" s="52"/>
       <c r="D20" s="100" t="s">
-        <v>458</v>
+        <v>369</v>
       </c>
       <c r="E20" s="100" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="F20" s="100" t="s">
-        <v>460</v>
+        <v>373</v>
       </c>
       <c r="G20" s="100" t="s">
-        <v>462</v>
+        <v>375</v>
       </c>
       <c r="H20" s="100" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="I20" s="100" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="J20" s="100" t="s">
-        <v>464</v>
+        <v>381</v>
       </c>
       <c r="K20" s="100"/>
       <c r="L20" s="100" t="s">
-        <v>284</v>
+        <v>391</v>
       </c>
       <c r="M20" s="100" t="s">
-        <v>266</v>
+        <v>393</v>
       </c>
       <c r="N20" s="100" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="O20" s="100" t="s">
-        <v>470</v>
+        <v>397</v>
       </c>
       <c r="P20" s="100" t="s">
-        <v>342</v>
+        <v>399</v>
       </c>
       <c r="Q20" s="100" t="s">
-        <v>472</v>
+        <v>401</v>
       </c>
       <c r="R20" s="100" t="s">
-        <v>474</v>
+        <v>403</v>
       </c>
       <c r="S20" s="53"/>
       <c r="V20" s="104"/>
@@ -4727,25 +4996,25 @@
       </c>
       <c r="C21" s="52"/>
       <c r="D21" s="95" t="s">
-        <v>379</v>
+        <v>256</v>
       </c>
       <c r="E21" s="95" t="s">
-        <v>380</v>
+        <v>257</v>
       </c>
       <c r="F21" s="95" t="s">
-        <v>381</v>
+        <v>258</v>
       </c>
       <c r="G21" s="96" t="s">
-        <v>382</v>
+        <v>259</v>
       </c>
       <c r="H21" s="98" t="s">
         <v>225</v>
       </c>
       <c r="I21" s="95" t="s">
-        <v>383</v>
+        <v>260</v>
       </c>
       <c r="J21" s="95" t="s">
-        <v>384</v>
+        <v>261</v>
       </c>
       <c r="K21" s="95" t="s">
         <v>167</v>
@@ -4760,16 +5029,16 @@
         <v>221</v>
       </c>
       <c r="O21" s="95" t="s">
-        <v>387</v>
+        <v>264</v>
       </c>
       <c r="P21" s="95" t="s">
         <v>244</v>
       </c>
       <c r="Q21" s="95" t="s">
-        <v>388</v>
+        <v>265</v>
       </c>
       <c r="R21" s="95" t="s">
-        <v>389</v>
+        <v>266</v>
       </c>
       <c r="S21" s="54"/>
       <c r="V21" s="104"/>
@@ -4778,47 +5047,47 @@
       <c r="B22" s="67"/>
       <c r="C22" s="52"/>
       <c r="D22" s="101" t="s">
-        <v>459</v>
+        <v>370</v>
       </c>
       <c r="E22" s="101" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="F22" s="101" t="s">
-        <v>461</v>
+        <v>374</v>
       </c>
       <c r="G22" s="101" t="s">
-        <v>463</v>
+        <v>376</v>
       </c>
       <c r="H22" s="101" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="I22" s="101" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="J22" s="101" t="s">
-        <v>465</v>
+        <v>382</v>
       </c>
       <c r="K22" s="101"/>
       <c r="L22" s="101" t="s">
-        <v>285</v>
+        <v>392</v>
       </c>
       <c r="M22" s="101" t="s">
-        <v>267</v>
+        <v>394</v>
       </c>
       <c r="N22" s="101" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="O22" s="101" t="s">
-        <v>471</v>
+        <v>398</v>
       </c>
       <c r="P22" s="101" t="s">
-        <v>343</v>
+        <v>400</v>
       </c>
       <c r="Q22" s="101" t="s">
-        <v>473</v>
+        <v>402</v>
       </c>
       <c r="R22" s="101" t="s">
-        <v>475</v>
+        <v>404</v>
       </c>
       <c r="S22" s="58"/>
       <c r="V22" s="105"/>
@@ -4848,23 +5117,23 @@
       <c r="B24" s="65"/>
       <c r="C24" s="52"/>
       <c r="D24" s="100" t="s">
-        <v>476</v>
+        <v>405</v>
       </c>
       <c r="E24" s="100" t="s">
-        <v>478</v>
+        <v>407</v>
       </c>
       <c r="F24" s="100"/>
       <c r="G24" s="100" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="H24" s="100" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="I24" s="100" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="J24" s="100" t="s">
-        <v>464</v>
+        <v>381</v>
       </c>
       <c r="K24" s="100"/>
       <c r="L24" s="100"/>
@@ -4884,10 +5153,10 @@
       </c>
       <c r="C25" s="52"/>
       <c r="D25" s="95" t="s">
-        <v>390</v>
+        <v>267</v>
       </c>
       <c r="E25" s="95" t="s">
-        <v>391</v>
+        <v>268</v>
       </c>
       <c r="F25" s="95" t="s">
         <v>167</v>
@@ -4899,10 +5168,10 @@
         <v>225</v>
       </c>
       <c r="I25" s="95" t="s">
-        <v>383</v>
+        <v>260</v>
       </c>
       <c r="J25" s="95" t="s">
-        <v>384</v>
+        <v>261</v>
       </c>
       <c r="K25" s="95" t="s">
         <v>171</v>
@@ -4921,23 +5190,23 @@
       <c r="B26" s="67"/>
       <c r="C26" s="52"/>
       <c r="D26" s="101" t="s">
-        <v>477</v>
+        <v>406</v>
       </c>
       <c r="E26" s="101" t="s">
-        <v>479</v>
+        <v>408</v>
       </c>
       <c r="F26" s="101"/>
       <c r="G26" s="101" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="H26" s="101" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="I26" s="101" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="J26" s="101" t="s">
-        <v>465</v>
+        <v>382</v>
       </c>
       <c r="K26" s="101"/>
       <c r="L26" s="101"/>
@@ -4983,42 +5252,42 @@
       <c r="B28" s="65"/>
       <c r="C28" s="52"/>
       <c r="D28" s="100" t="s">
-        <v>300</v>
+        <v>349</v>
       </c>
       <c r="E28" s="100" t="s">
-        <v>302</v>
+        <v>385</v>
       </c>
       <c r="F28" s="100" t="s">
-        <v>280</v>
+        <v>351</v>
       </c>
       <c r="G28" s="100" t="s">
-        <v>304</v>
+        <v>361</v>
       </c>
       <c r="H28" s="100"/>
       <c r="I28" s="100" t="s">
-        <v>262</v>
+        <v>409</v>
       </c>
       <c r="J28" s="100" t="s">
-        <v>352</v>
+        <v>411</v>
       </c>
       <c r="K28" s="100" t="s">
-        <v>268</v>
+        <v>329</v>
       </c>
       <c r="L28" s="100" t="s">
-        <v>286</v>
+        <v>413</v>
       </c>
       <c r="M28" s="100"/>
       <c r="N28" s="100" t="s">
-        <v>306</v>
+        <v>415</v>
       </c>
       <c r="O28" s="100" t="s">
-        <v>308</v>
+        <v>417</v>
       </c>
       <c r="P28" s="100" t="s">
-        <v>336</v>
+        <v>419</v>
       </c>
       <c r="Q28" s="100" t="s">
-        <v>480</v>
+        <v>421</v>
       </c>
       <c r="R28" s="100"/>
       <c r="S28" s="53"/>
@@ -5074,7 +5343,7 @@
         <v>220</v>
       </c>
       <c r="Q29" s="95" t="s">
-        <v>392</v>
+        <v>269</v>
       </c>
       <c r="R29" s="95" t="s">
         <v>167</v>
@@ -5090,42 +5359,42 @@
       <c r="B30" s="67"/>
       <c r="C30" s="52"/>
       <c r="D30" s="101" t="s">
-        <v>301</v>
+        <v>350</v>
       </c>
       <c r="E30" s="101" t="s">
-        <v>303</v>
+        <v>386</v>
       </c>
       <c r="F30" s="101" t="s">
-        <v>281</v>
+        <v>352</v>
       </c>
       <c r="G30" s="101" t="s">
-        <v>305</v>
+        <v>362</v>
       </c>
       <c r="H30" s="101"/>
       <c r="I30" s="101" t="s">
-        <v>263</v>
+        <v>410</v>
       </c>
       <c r="J30" s="101" t="s">
-        <v>353</v>
+        <v>412</v>
       </c>
       <c r="K30" s="101" t="s">
-        <v>269</v>
+        <v>330</v>
       </c>
       <c r="L30" s="101" t="s">
-        <v>287</v>
+        <v>414</v>
       </c>
       <c r="M30" s="101"/>
       <c r="N30" s="101" t="s">
-        <v>307</v>
+        <v>416</v>
       </c>
       <c r="O30" s="101" t="s">
-        <v>309</v>
+        <v>418</v>
       </c>
       <c r="P30" s="101" t="s">
-        <v>337</v>
+        <v>420</v>
       </c>
       <c r="Q30" s="101" t="s">
-        <v>481</v>
+        <v>422</v>
       </c>
       <c r="R30" s="101"/>
       <c r="S30" s="58"/>
@@ -5164,40 +5433,44 @@
       <c r="B32" s="65"/>
       <c r="C32" s="52"/>
       <c r="D32" s="100" t="s">
-        <v>344</v>
+        <v>423</v>
       </c>
       <c r="E32" s="100" t="s">
-        <v>482</v>
+        <v>425</v>
       </c>
       <c r="F32" s="100" t="s">
-        <v>484</v>
+        <v>427</v>
       </c>
       <c r="G32" s="100" t="s">
-        <v>486</v>
+        <v>429</v>
       </c>
       <c r="H32" s="100"/>
       <c r="I32" s="100" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="J32" s="100" t="s">
-        <v>488</v>
+        <v>431</v>
       </c>
       <c r="K32" s="100" t="s">
-        <v>490</v>
-      </c>
-      <c r="L32" s="100"/>
+        <v>343</v>
+      </c>
+      <c r="L32" s="100" t="s">
+        <v>433</v>
+      </c>
       <c r="M32" s="100"/>
       <c r="N32" s="100" t="s">
-        <v>332</v>
+        <v>435</v>
       </c>
       <c r="O32" s="100" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="P32" s="100"/>
       <c r="Q32" s="100" t="s">
-        <v>492</v>
-      </c>
-      <c r="R32" s="100"/>
+        <v>437</v>
+      </c>
+      <c r="R32" s="100" t="s">
+        <v>439</v>
+      </c>
       <c r="S32" s="53"/>
       <c r="U32" s="82" t="str">
         <f t="shared" si="0"/>
@@ -5215,13 +5488,13 @@
         <v>226</v>
       </c>
       <c r="E33" s="95" t="s">
-        <v>393</v>
+        <v>270</v>
       </c>
       <c r="F33" s="95" t="s">
-        <v>394</v>
+        <v>271</v>
       </c>
       <c r="G33" s="96" t="s">
-        <v>395</v>
+        <v>272</v>
       </c>
       <c r="H33" s="95" t="s">
         <v>171</v>
@@ -5230,13 +5503,13 @@
         <v>187</v>
       </c>
       <c r="J33" s="95" t="s">
-        <v>396</v>
+        <v>273</v>
       </c>
       <c r="K33" s="98" t="s">
-        <v>397</v>
+        <v>312</v>
       </c>
       <c r="L33" s="98" t="s">
-        <v>398</v>
+        <v>313</v>
       </c>
       <c r="M33" s="95" t="s">
         <v>197</v>
@@ -5251,10 +5524,10 @@
         <v>197</v>
       </c>
       <c r="Q33" s="95" t="s">
-        <v>399</v>
+        <v>274</v>
       </c>
       <c r="R33" s="98" t="s">
-        <v>400</v>
+        <v>314</v>
       </c>
       <c r="S33" s="54"/>
       <c r="V33" s="69"/>
@@ -5263,40 +5536,44 @@
       <c r="B34" s="67"/>
       <c r="C34" s="52"/>
       <c r="D34" s="101" t="s">
-        <v>345</v>
+        <v>424</v>
       </c>
       <c r="E34" s="101" t="s">
-        <v>483</v>
+        <v>426</v>
       </c>
       <c r="F34" s="101" t="s">
-        <v>485</v>
+        <v>428</v>
       </c>
       <c r="G34" s="101" t="s">
-        <v>487</v>
+        <v>430</v>
       </c>
       <c r="H34" s="101"/>
       <c r="I34" s="101" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="J34" s="101" t="s">
-        <v>489</v>
+        <v>432</v>
       </c>
       <c r="K34" s="101" t="s">
-        <v>491</v>
-      </c>
-      <c r="L34" s="101"/>
+        <v>344</v>
+      </c>
+      <c r="L34" s="101" t="s">
+        <v>434</v>
+      </c>
       <c r="M34" s="101"/>
       <c r="N34" s="101" t="s">
-        <v>333</v>
+        <v>436</v>
       </c>
       <c r="O34" s="101" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="P34" s="101"/>
       <c r="Q34" s="101" t="s">
-        <v>493</v>
-      </c>
-      <c r="R34" s="101"/>
+        <v>438</v>
+      </c>
+      <c r="R34" s="101" t="s">
+        <v>440</v>
+      </c>
       <c r="S34" s="58"/>
       <c r="V34" s="69"/>
     </row>
@@ -5326,16 +5603,16 @@
       <c r="C36" s="52"/>
       <c r="D36" s="100"/>
       <c r="E36" s="100" t="s">
-        <v>338</v>
+        <v>441</v>
       </c>
       <c r="F36" s="100" t="s">
-        <v>304</v>
+        <v>361</v>
       </c>
       <c r="G36" s="100" t="s">
-        <v>270</v>
+        <v>443</v>
       </c>
       <c r="H36" s="100" t="s">
-        <v>264</v>
+        <v>445</v>
       </c>
       <c r="I36" s="100"/>
       <c r="J36" s="100"/>
@@ -5391,16 +5668,16 @@
       <c r="C38" s="52"/>
       <c r="D38" s="101"/>
       <c r="E38" s="101" t="s">
-        <v>339</v>
+        <v>442</v>
       </c>
       <c r="F38" s="101" t="s">
-        <v>305</v>
+        <v>362</v>
       </c>
       <c r="G38" s="101" t="s">
-        <v>271</v>
+        <v>444</v>
       </c>
       <c r="H38" s="101" t="s">
-        <v>265</v>
+        <v>446</v>
       </c>
       <c r="I38" s="101"/>
       <c r="J38" s="101"/>
@@ -5440,45 +5717,45 @@
       <c r="B40" s="65"/>
       <c r="C40" s="52"/>
       <c r="D40" s="100" t="s">
-        <v>256</v>
+        <v>343</v>
       </c>
       <c r="E40" s="100" t="s">
-        <v>258</v>
+        <v>345</v>
       </c>
       <c r="F40" s="100" t="s">
-        <v>260</v>
+        <v>347</v>
       </c>
       <c r="G40" s="100"/>
       <c r="H40" s="100" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="I40" s="100" t="s">
-        <v>494</v>
+        <v>447</v>
       </c>
       <c r="J40" s="100" t="s">
-        <v>278</v>
+        <v>449</v>
       </c>
       <c r="K40" s="100" t="s">
-        <v>298</v>
+        <v>451</v>
       </c>
       <c r="L40" s="100"/>
       <c r="M40" s="100" t="s">
-        <v>266</v>
+        <v>393</v>
       </c>
       <c r="N40" s="100" t="s">
-        <v>268</v>
+        <v>329</v>
       </c>
       <c r="O40" s="100" t="s">
-        <v>280</v>
+        <v>351</v>
       </c>
       <c r="P40" s="100" t="s">
-        <v>336</v>
+        <v>419</v>
       </c>
       <c r="Q40" s="100" t="s">
-        <v>496</v>
+        <v>453</v>
       </c>
       <c r="R40" s="100" t="s">
-        <v>256</v>
+        <v>343</v>
       </c>
       <c r="S40" s="53"/>
       <c r="V40" s="69"/>
@@ -5505,7 +5782,7 @@
         <v>216</v>
       </c>
       <c r="I41" s="98" t="s">
-        <v>401</v>
+        <v>315</v>
       </c>
       <c r="J41" s="95" t="s">
         <v>213</v>
@@ -5529,10 +5806,10 @@
         <v>220</v>
       </c>
       <c r="Q41" s="95" t="s">
-        <v>402</v>
+        <v>276</v>
       </c>
       <c r="R41" s="95" t="s">
-        <v>403</v>
+        <v>277</v>
       </c>
       <c r="S41" s="54"/>
       <c r="V41" s="69"/>
@@ -5541,45 +5818,45 @@
       <c r="B42" s="67"/>
       <c r="C42" s="52"/>
       <c r="D42" s="101" t="s">
-        <v>257</v>
+        <v>344</v>
       </c>
       <c r="E42" s="101" t="s">
-        <v>259</v>
+        <v>346</v>
       </c>
       <c r="F42" s="101" t="s">
-        <v>261</v>
+        <v>348</v>
       </c>
       <c r="G42" s="101"/>
       <c r="H42" s="101" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="I42" s="101" t="s">
-        <v>495</v>
+        <v>448</v>
       </c>
       <c r="J42" s="101" t="s">
-        <v>279</v>
+        <v>450</v>
       </c>
       <c r="K42" s="101" t="s">
-        <v>299</v>
+        <v>452</v>
       </c>
       <c r="L42" s="101"/>
       <c r="M42" s="101" t="s">
-        <v>267</v>
+        <v>394</v>
       </c>
       <c r="N42" s="101" t="s">
-        <v>269</v>
+        <v>330</v>
       </c>
       <c r="O42" s="101" t="s">
-        <v>281</v>
+        <v>352</v>
       </c>
       <c r="P42" s="101" t="s">
-        <v>337</v>
+        <v>420</v>
       </c>
       <c r="Q42" s="101" t="s">
-        <v>497</v>
+        <v>454</v>
       </c>
       <c r="R42" s="101" t="s">
-        <v>257</v>
+        <v>344</v>
       </c>
       <c r="S42" s="58"/>
       <c r="V42" s="69"/>
@@ -5609,43 +5886,43 @@
       <c r="B44" s="65"/>
       <c r="C44" s="52"/>
       <c r="D44" s="100" t="s">
-        <v>272</v>
+        <v>455</v>
       </c>
       <c r="E44" s="100"/>
       <c r="F44" s="100" t="s">
-        <v>336</v>
+        <v>419</v>
       </c>
       <c r="G44" s="100" t="s">
-        <v>496</v>
+        <v>453</v>
       </c>
       <c r="H44" s="100" t="s">
-        <v>310</v>
+        <v>457</v>
       </c>
       <c r="I44" s="100" t="s">
-        <v>470</v>
+        <v>397</v>
       </c>
       <c r="J44" s="100"/>
       <c r="K44" s="100" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="L44" s="100" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
       <c r="M44" s="100" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="N44" s="100" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="O44" s="100"/>
       <c r="P44" s="100" t="s">
-        <v>284</v>
+        <v>391</v>
       </c>
       <c r="Q44" s="100" t="s">
-        <v>292</v>
+        <v>461</v>
       </c>
       <c r="R44" s="100" t="s">
-        <v>338</v>
+        <v>441</v>
       </c>
       <c r="S44" s="53"/>
       <c r="V44" s="69"/>
@@ -5657,7 +5934,7 @@
       </c>
       <c r="C45" s="52"/>
       <c r="D45" s="95" t="s">
-        <v>404</v>
+        <v>278</v>
       </c>
       <c r="E45" s="95" t="s">
         <v>167</v>
@@ -5666,13 +5943,13 @@
         <v>220</v>
       </c>
       <c r="G45" s="96" t="s">
-        <v>402</v>
+        <v>276</v>
       </c>
       <c r="H45" s="95" t="s">
-        <v>405</v>
+        <v>279</v>
       </c>
       <c r="I45" s="95" t="s">
-        <v>387</v>
+        <v>264</v>
       </c>
       <c r="J45" s="95" t="s">
         <v>167</v>
@@ -5681,7 +5958,7 @@
         <v>221</v>
       </c>
       <c r="L45" s="95" t="s">
-        <v>406</v>
+        <v>280</v>
       </c>
       <c r="M45" s="95" t="s">
         <v>239</v>
@@ -5708,43 +5985,43 @@
       <c r="B46" s="67"/>
       <c r="C46" s="52"/>
       <c r="D46" s="101" t="s">
-        <v>273</v>
+        <v>456</v>
       </c>
       <c r="E46" s="101"/>
       <c r="F46" s="101" t="s">
-        <v>337</v>
+        <v>420</v>
       </c>
       <c r="G46" s="101" t="s">
-        <v>497</v>
+        <v>454</v>
       </c>
       <c r="H46" s="101" t="s">
-        <v>311</v>
+        <v>458</v>
       </c>
       <c r="I46" s="101" t="s">
-        <v>471</v>
+        <v>398</v>
       </c>
       <c r="J46" s="101"/>
       <c r="K46" s="101" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="L46" s="101" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="M46" s="101" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="N46" s="101" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="O46" s="101"/>
       <c r="P46" s="101" t="s">
-        <v>285</v>
+        <v>392</v>
       </c>
       <c r="Q46" s="101" t="s">
-        <v>293</v>
+        <v>462</v>
       </c>
       <c r="R46" s="101" t="s">
-        <v>339</v>
+        <v>442</v>
       </c>
       <c r="S46" s="58"/>
       <c r="V46" s="69"/>
@@ -5774,45 +6051,45 @@
       <c r="B48" s="65"/>
       <c r="C48" s="52"/>
       <c r="D48" s="100" t="s">
-        <v>500</v>
+        <v>463</v>
       </c>
       <c r="E48" s="100" t="s">
-        <v>502</v>
+        <v>465</v>
       </c>
       <c r="F48" s="100" t="s">
-        <v>370</v>
+        <v>467</v>
       </c>
       <c r="G48" s="100" t="s">
-        <v>328</v>
+        <v>469</v>
       </c>
       <c r="H48" s="100" t="s">
-        <v>264</v>
+        <v>445</v>
       </c>
       <c r="I48" s="100"/>
       <c r="J48" s="100" t="s">
-        <v>338</v>
+        <v>441</v>
       </c>
       <c r="K48" s="100" t="s">
-        <v>500</v>
+        <v>463</v>
       </c>
       <c r="L48" s="100" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="M48" s="100" t="s">
-        <v>506</v>
+        <v>473</v>
       </c>
       <c r="N48" s="100" t="s">
-        <v>370</v>
+        <v>467</v>
       </c>
       <c r="O48" s="100" t="s">
-        <v>328</v>
+        <v>469</v>
       </c>
       <c r="P48" s="100" t="s">
-        <v>264</v>
+        <v>445</v>
       </c>
       <c r="Q48" s="100"/>
       <c r="R48" s="100" t="s">
-        <v>300</v>
+        <v>349</v>
       </c>
       <c r="S48" s="53"/>
       <c r="V48" s="69"/>
@@ -5824,13 +6101,13 @@
       </c>
       <c r="C49" s="52"/>
       <c r="D49" s="98" t="s">
-        <v>407</v>
+        <v>316</v>
       </c>
       <c r="E49" s="95" t="s">
-        <v>408</v>
+        <v>282</v>
       </c>
       <c r="F49" s="95" t="s">
-        <v>409</v>
+        <v>283</v>
       </c>
       <c r="G49" s="96" t="s">
         <v>217</v>
@@ -5845,16 +6122,16 @@
         <v>200</v>
       </c>
       <c r="K49" s="95" t="s">
-        <v>407</v>
+        <v>281</v>
       </c>
       <c r="L49" s="95" t="s">
-        <v>410</v>
+        <v>284</v>
       </c>
       <c r="M49" s="95" t="s">
-        <v>411</v>
+        <v>285</v>
       </c>
       <c r="N49" s="95" t="s">
-        <v>409</v>
+        <v>283</v>
       </c>
       <c r="O49" s="95" t="s">
         <v>217</v>
@@ -5875,45 +6152,45 @@
       <c r="B50" s="67"/>
       <c r="C50" s="52"/>
       <c r="D50" s="101" t="s">
-        <v>501</v>
+        <v>464</v>
       </c>
       <c r="E50" s="101" t="s">
-        <v>503</v>
+        <v>466</v>
       </c>
       <c r="F50" s="101" t="s">
-        <v>371</v>
+        <v>468</v>
       </c>
       <c r="G50" s="101" t="s">
-        <v>329</v>
+        <v>470</v>
       </c>
       <c r="H50" s="101" t="s">
-        <v>265</v>
+        <v>446</v>
       </c>
       <c r="I50" s="101"/>
       <c r="J50" s="101" t="s">
-        <v>339</v>
+        <v>442</v>
       </c>
       <c r="K50" s="101" t="s">
-        <v>501</v>
+        <v>464</v>
       </c>
       <c r="L50" s="101" t="s">
-        <v>505</v>
+        <v>472</v>
       </c>
       <c r="M50" s="101" t="s">
-        <v>507</v>
+        <v>474</v>
       </c>
       <c r="N50" s="101" t="s">
-        <v>371</v>
+        <v>468</v>
       </c>
       <c r="O50" s="101" t="s">
-        <v>329</v>
+        <v>470</v>
       </c>
       <c r="P50" s="101" t="s">
-        <v>265</v>
+        <v>446</v>
       </c>
       <c r="Q50" s="101"/>
       <c r="R50" s="101" t="s">
-        <v>301</v>
+        <v>350</v>
       </c>
       <c r="S50" s="58"/>
       <c r="V50" s="69"/>
@@ -5943,41 +6220,43 @@
       <c r="B52" s="65"/>
       <c r="C52" s="52"/>
       <c r="D52" s="100" t="s">
-        <v>280</v>
+        <v>351</v>
       </c>
       <c r="E52" s="100" t="s">
-        <v>304</v>
+        <v>361</v>
       </c>
       <c r="F52" s="100" t="s">
-        <v>508</v>
+        <v>475</v>
       </c>
       <c r="G52" s="100" t="s">
-        <v>332</v>
+        <v>435</v>
       </c>
       <c r="H52" s="100" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="I52" s="100"/>
       <c r="J52" s="100" t="s">
-        <v>492</v>
-      </c>
-      <c r="K52" s="100"/>
+        <v>437</v>
+      </c>
+      <c r="K52" s="100" t="s">
+        <v>439</v>
+      </c>
       <c r="L52" s="100"/>
       <c r="M52" s="100" t="s">
-        <v>510</v>
+        <v>477</v>
       </c>
       <c r="N52" s="100" t="s">
-        <v>338</v>
+        <v>441</v>
       </c>
       <c r="O52" s="100" t="s">
-        <v>304</v>
+        <v>361</v>
       </c>
       <c r="P52" s="100" t="s">
-        <v>264</v>
+        <v>445</v>
       </c>
       <c r="Q52" s="100"/>
       <c r="R52" s="100" t="s">
-        <v>284</v>
+        <v>391</v>
       </c>
       <c r="S52" s="53"/>
       <c r="V52" s="69"/>
@@ -5995,7 +6274,7 @@
         <v>198</v>
       </c>
       <c r="F53" s="95" t="s">
-        <v>412</v>
+        <v>286</v>
       </c>
       <c r="G53" s="96" t="s">
         <v>207</v>
@@ -6007,16 +6286,16 @@
         <v>197</v>
       </c>
       <c r="J53" s="95" t="s">
-        <v>399</v>
+        <v>274</v>
       </c>
       <c r="K53" s="95" t="s">
-        <v>400</v>
+        <v>275</v>
       </c>
       <c r="L53" s="95" t="s">
         <v>197</v>
       </c>
       <c r="M53" s="98" t="s">
-        <v>413</v>
+        <v>317</v>
       </c>
       <c r="N53" s="95" t="s">
         <v>200</v>
@@ -6040,41 +6319,43 @@
       <c r="B54" s="67"/>
       <c r="C54" s="52"/>
       <c r="D54" s="101" t="s">
-        <v>281</v>
+        <v>352</v>
       </c>
       <c r="E54" s="101" t="s">
-        <v>305</v>
+        <v>362</v>
       </c>
       <c r="F54" s="101" t="s">
-        <v>509</v>
+        <v>476</v>
       </c>
       <c r="G54" s="101" t="s">
-        <v>333</v>
+        <v>436</v>
       </c>
       <c r="H54" s="101" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="I54" s="101"/>
       <c r="J54" s="101" t="s">
-        <v>493</v>
-      </c>
-      <c r="K54" s="101"/>
+        <v>438</v>
+      </c>
+      <c r="K54" s="101" t="s">
+        <v>440</v>
+      </c>
       <c r="L54" s="101"/>
       <c r="M54" s="101" t="s">
-        <v>511</v>
+        <v>478</v>
       </c>
       <c r="N54" s="101" t="s">
-        <v>339</v>
+        <v>442</v>
       </c>
       <c r="O54" s="101" t="s">
-        <v>305</v>
+        <v>362</v>
       </c>
       <c r="P54" s="101" t="s">
-        <v>265</v>
+        <v>446</v>
       </c>
       <c r="Q54" s="101"/>
       <c r="R54" s="101" t="s">
-        <v>285</v>
+        <v>392</v>
       </c>
       <c r="S54" s="58"/>
       <c r="V54" s="69"/>
@@ -6104,45 +6385,45 @@
       <c r="B56" s="65"/>
       <c r="C56" s="52"/>
       <c r="D56" s="100" t="s">
-        <v>292</v>
+        <v>461</v>
       </c>
       <c r="E56" s="100" t="s">
-        <v>290</v>
+        <v>479</v>
       </c>
       <c r="F56" s="100" t="s">
-        <v>318</v>
+        <v>481</v>
       </c>
       <c r="G56" s="100" t="s">
-        <v>266</v>
+        <v>393</v>
       </c>
       <c r="H56" s="100" t="s">
-        <v>304</v>
+        <v>361</v>
       </c>
       <c r="I56" s="100"/>
       <c r="J56" s="100" t="s">
-        <v>290</v>
+        <v>479</v>
       </c>
       <c r="K56" s="100" t="s">
-        <v>512</v>
+        <v>483</v>
       </c>
       <c r="L56" s="100" t="s">
-        <v>266</v>
+        <v>393</v>
       </c>
       <c r="M56" s="100" t="s">
-        <v>304</v>
+        <v>361</v>
       </c>
       <c r="N56" s="100"/>
       <c r="O56" s="100" t="s">
-        <v>514</v>
+        <v>485</v>
       </c>
       <c r="P56" s="100" t="s">
-        <v>296</v>
+        <v>487</v>
       </c>
       <c r="Q56" s="100" t="s">
-        <v>370</v>
+        <v>467</v>
       </c>
       <c r="R56" s="100" t="s">
-        <v>320</v>
+        <v>489</v>
       </c>
       <c r="S56" s="53"/>
       <c r="V56" s="69"/>
@@ -6157,7 +6438,7 @@
         <v>219</v>
       </c>
       <c r="E57" s="95" t="s">
-        <v>414</v>
+        <v>287</v>
       </c>
       <c r="F57" s="95" t="s">
         <v>235</v>
@@ -6172,10 +6453,10 @@
         <v>197</v>
       </c>
       <c r="J57" s="95" t="s">
-        <v>414</v>
+        <v>287</v>
       </c>
       <c r="K57" s="95" t="s">
-        <v>415</v>
+        <v>288</v>
       </c>
       <c r="L57" s="95" t="s">
         <v>170</v>
@@ -6187,7 +6468,7 @@
         <v>167</v>
       </c>
       <c r="O57" s="95" t="s">
-        <v>416</v>
+        <v>289</v>
       </c>
       <c r="P57" s="95" t="s">
         <v>223</v>
@@ -6205,45 +6486,45 @@
       <c r="B58" s="67"/>
       <c r="C58" s="52"/>
       <c r="D58" s="101" t="s">
-        <v>293</v>
+        <v>462</v>
       </c>
       <c r="E58" s="101" t="s">
-        <v>291</v>
+        <v>480</v>
       </c>
       <c r="F58" s="101" t="s">
-        <v>319</v>
+        <v>482</v>
       </c>
       <c r="G58" s="101" t="s">
-        <v>267</v>
+        <v>394</v>
       </c>
       <c r="H58" s="101" t="s">
-        <v>305</v>
+        <v>362</v>
       </c>
       <c r="I58" s="101"/>
       <c r="J58" s="101" t="s">
-        <v>291</v>
+        <v>480</v>
       </c>
       <c r="K58" s="101" t="s">
-        <v>513</v>
+        <v>484</v>
       </c>
       <c r="L58" s="101" t="s">
-        <v>267</v>
+        <v>394</v>
       </c>
       <c r="M58" s="101" t="s">
-        <v>305</v>
+        <v>362</v>
       </c>
       <c r="N58" s="101"/>
       <c r="O58" s="101" t="s">
-        <v>515</v>
+        <v>486</v>
       </c>
       <c r="P58" s="101" t="s">
-        <v>297</v>
+        <v>488</v>
       </c>
       <c r="Q58" s="101" t="s">
-        <v>371</v>
+        <v>468</v>
       </c>
       <c r="R58" s="101" t="s">
-        <v>321</v>
+        <v>490</v>
       </c>
       <c r="S58" s="58"/>
       <c r="V58" s="69"/>
@@ -6273,43 +6554,43 @@
       <c r="B60" s="65"/>
       <c r="C60" s="52"/>
       <c r="D60" s="100" t="s">
-        <v>336</v>
+        <v>419</v>
       </c>
       <c r="E60" s="100" t="s">
-        <v>496</v>
+        <v>453</v>
       </c>
       <c r="F60" s="100" t="s">
-        <v>470</v>
+        <v>397</v>
       </c>
       <c r="G60" s="100"/>
       <c r="H60" s="100" t="s">
-        <v>336</v>
+        <v>419</v>
       </c>
       <c r="I60" s="100" t="s">
-        <v>496</v>
+        <v>453</v>
       </c>
       <c r="J60" s="100" t="s">
-        <v>310</v>
+        <v>457</v>
       </c>
       <c r="K60" s="100"/>
       <c r="L60" s="100" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="M60" s="100" t="s">
-        <v>280</v>
+        <v>351</v>
       </c>
       <c r="N60" s="100" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
       <c r="O60" s="100"/>
       <c r="P60" s="100" t="s">
-        <v>336</v>
+        <v>419</v>
       </c>
       <c r="Q60" s="100" t="s">
-        <v>496</v>
+        <v>453</v>
       </c>
       <c r="R60" s="100" t="s">
-        <v>256</v>
+        <v>343</v>
       </c>
       <c r="S60" s="53"/>
       <c r="V60" s="69"/>
@@ -6324,10 +6605,10 @@
         <v>220</v>
       </c>
       <c r="E61" s="95" t="s">
-        <v>402</v>
+        <v>276</v>
       </c>
       <c r="F61" s="95" t="s">
-        <v>387</v>
+        <v>264</v>
       </c>
       <c r="G61" s="96" t="s">
         <v>197</v>
@@ -6336,10 +6617,10 @@
         <v>220</v>
       </c>
       <c r="I61" s="95" t="s">
-        <v>402</v>
+        <v>276</v>
       </c>
       <c r="J61" s="95" t="s">
-        <v>405</v>
+        <v>279</v>
       </c>
       <c r="K61" s="95" t="s">
         <v>197</v>
@@ -6351,7 +6632,7 @@
         <v>193</v>
       </c>
       <c r="N61" s="95" t="s">
-        <v>406</v>
+        <v>280</v>
       </c>
       <c r="O61" s="95" t="s">
         <v>197</v>
@@ -6360,10 +6641,10 @@
         <v>220</v>
       </c>
       <c r="Q61" s="95" t="s">
-        <v>402</v>
+        <v>276</v>
       </c>
       <c r="R61" s="95" t="s">
-        <v>403</v>
+        <v>277</v>
       </c>
       <c r="S61" s="54"/>
       <c r="V61" s="69"/>
@@ -6372,43 +6653,43 @@
       <c r="B62" s="67"/>
       <c r="C62" s="52"/>
       <c r="D62" s="101" t="s">
-        <v>337</v>
+        <v>420</v>
       </c>
       <c r="E62" s="101" t="s">
-        <v>497</v>
+        <v>454</v>
       </c>
       <c r="F62" s="101" t="s">
-        <v>471</v>
+        <v>398</v>
       </c>
       <c r="G62" s="101"/>
       <c r="H62" s="101" t="s">
-        <v>337</v>
+        <v>420</v>
       </c>
       <c r="I62" s="101" t="s">
-        <v>497</v>
+        <v>454</v>
       </c>
       <c r="J62" s="101" t="s">
-        <v>311</v>
+        <v>458</v>
       </c>
       <c r="K62" s="101"/>
       <c r="L62" s="101" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="M62" s="101" t="s">
-        <v>281</v>
+        <v>352</v>
       </c>
       <c r="N62" s="101" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="O62" s="101"/>
       <c r="P62" s="101" t="s">
-        <v>337</v>
+        <v>420</v>
       </c>
       <c r="Q62" s="101" t="s">
-        <v>497</v>
+        <v>454</v>
       </c>
       <c r="R62" s="101" t="s">
-        <v>257</v>
+        <v>344</v>
       </c>
       <c r="S62" s="58"/>
       <c r="V62" s="69"/>
@@ -6438,45 +6719,45 @@
       <c r="B64" s="65"/>
       <c r="C64" s="52"/>
       <c r="D64" s="100" t="s">
-        <v>272</v>
+        <v>455</v>
       </c>
       <c r="E64" s="100" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="F64" s="100" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="G64" s="100"/>
       <c r="H64" s="100" t="s">
-        <v>284</v>
+        <v>391</v>
       </c>
       <c r="I64" s="100" t="s">
-        <v>266</v>
+        <v>393</v>
       </c>
       <c r="J64" s="100" t="s">
-        <v>304</v>
+        <v>361</v>
       </c>
       <c r="K64" s="100" t="s">
-        <v>462</v>
+        <v>375</v>
       </c>
       <c r="L64" s="100"/>
       <c r="M64" s="100" t="s">
-        <v>312</v>
+        <v>491</v>
       </c>
       <c r="N64" s="100" t="s">
-        <v>338</v>
+        <v>441</v>
       </c>
       <c r="O64" s="100" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="P64" s="100" t="s">
-        <v>516</v>
+        <v>493</v>
       </c>
       <c r="Q64" s="100" t="s">
-        <v>284</v>
+        <v>391</v>
       </c>
       <c r="R64" s="100" t="s">
-        <v>292</v>
+        <v>461</v>
       </c>
       <c r="S64" s="53"/>
       <c r="V64" s="69"/>
@@ -6488,10 +6769,10 @@
       </c>
       <c r="C65" s="52"/>
       <c r="D65" s="95" t="s">
-        <v>404</v>
+        <v>278</v>
       </c>
       <c r="E65" s="98" t="s">
-        <v>239</v>
+        <v>318</v>
       </c>
       <c r="F65" s="95" t="s">
         <v>240</v>
@@ -6509,7 +6790,7 @@
         <v>198</v>
       </c>
       <c r="K65" s="95" t="s">
-        <v>382</v>
+        <v>259</v>
       </c>
       <c r="L65" s="95" t="s">
         <v>167</v>
@@ -6521,10 +6802,10 @@
         <v>200</v>
       </c>
       <c r="O65" s="95" t="s">
-        <v>417</v>
+        <v>290</v>
       </c>
       <c r="P65" s="98" t="s">
-        <v>418</v>
+        <v>319</v>
       </c>
       <c r="Q65" s="95" t="s">
         <v>203</v>
@@ -6539,45 +6820,45 @@
       <c r="B66" s="67"/>
       <c r="C66" s="52"/>
       <c r="D66" s="101" t="s">
-        <v>273</v>
+        <v>456</v>
       </c>
       <c r="E66" s="101" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="F66" s="101" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="G66" s="101"/>
       <c r="H66" s="101" t="s">
-        <v>285</v>
+        <v>392</v>
       </c>
       <c r="I66" s="101" t="s">
-        <v>267</v>
+        <v>394</v>
       </c>
       <c r="J66" s="101" t="s">
-        <v>305</v>
+        <v>362</v>
       </c>
       <c r="K66" s="101" t="s">
-        <v>463</v>
+        <v>376</v>
       </c>
       <c r="L66" s="101"/>
       <c r="M66" s="101" t="s">
-        <v>313</v>
+        <v>492</v>
       </c>
       <c r="N66" s="101" t="s">
-        <v>339</v>
+        <v>442</v>
       </c>
       <c r="O66" s="101" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="P66" s="101" t="s">
-        <v>517</v>
+        <v>494</v>
       </c>
       <c r="Q66" s="101" t="s">
-        <v>285</v>
+        <v>392</v>
       </c>
       <c r="R66" s="101" t="s">
-        <v>293</v>
+        <v>462</v>
       </c>
       <c r="S66" s="58"/>
       <c r="V66" s="69"/>
@@ -6607,45 +6888,45 @@
       <c r="B68" s="65"/>
       <c r="C68" s="52"/>
       <c r="D68" s="100" t="s">
-        <v>518</v>
+        <v>495</v>
       </c>
       <c r="E68" s="100" t="s">
-        <v>520</v>
+        <v>497</v>
       </c>
       <c r="F68" s="100" t="s">
-        <v>522</v>
+        <v>499</v>
       </c>
       <c r="G68" s="100" t="s">
-        <v>362</v>
+        <v>501</v>
       </c>
       <c r="H68" s="100" t="s">
-        <v>524</v>
+        <v>503</v>
       </c>
       <c r="I68" s="100" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
       <c r="J68" s="100" t="s">
-        <v>524</v>
+        <v>503</v>
       </c>
       <c r="K68" s="100" t="s">
-        <v>258</v>
+        <v>345</v>
       </c>
       <c r="L68" s="100" t="s">
-        <v>260</v>
+        <v>347</v>
       </c>
       <c r="M68" s="100"/>
       <c r="N68" s="100" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="O68" s="100" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="P68" s="100" t="s">
-        <v>330</v>
+        <v>507</v>
       </c>
       <c r="Q68" s="100"/>
       <c r="R68" s="100" t="s">
-        <v>256</v>
+        <v>343</v>
       </c>
       <c r="S68" s="53"/>
       <c r="V68" s="69"/>
@@ -6657,25 +6938,25 @@
       </c>
       <c r="C69" s="52"/>
       <c r="D69" s="95" t="s">
-        <v>419</v>
+        <v>291</v>
       </c>
       <c r="E69" s="95" t="s">
-        <v>420</v>
+        <v>292</v>
       </c>
       <c r="F69" s="95" t="s">
-        <v>421</v>
+        <v>293</v>
       </c>
       <c r="G69" s="96" t="s">
         <v>211</v>
       </c>
       <c r="H69" s="95" t="s">
-        <v>422</v>
+        <v>294</v>
       </c>
       <c r="I69" s="95" t="s">
-        <v>423</v>
+        <v>295</v>
       </c>
       <c r="J69" s="95" t="s">
-        <v>422</v>
+        <v>294</v>
       </c>
       <c r="K69" s="95" t="s">
         <v>183</v>
@@ -6708,45 +6989,45 @@
       <c r="B70" s="67"/>
       <c r="C70" s="52"/>
       <c r="D70" s="101" t="s">
-        <v>519</v>
+        <v>496</v>
       </c>
       <c r="E70" s="101" t="s">
-        <v>521</v>
+        <v>498</v>
       </c>
       <c r="F70" s="101" t="s">
-        <v>523</v>
+        <v>500</v>
       </c>
       <c r="G70" s="101" t="s">
-        <v>363</v>
+        <v>502</v>
       </c>
       <c r="H70" s="101" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
       <c r="I70" s="101" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
       <c r="J70" s="101" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
       <c r="K70" s="101" t="s">
-        <v>259</v>
+        <v>346</v>
       </c>
       <c r="L70" s="101" t="s">
-        <v>261</v>
+        <v>348</v>
       </c>
       <c r="M70" s="101"/>
       <c r="N70" s="101" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="O70" s="101" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="P70" s="101" t="s">
-        <v>331</v>
+        <v>508</v>
       </c>
       <c r="Q70" s="101"/>
       <c r="R70" s="101" t="s">
-        <v>257</v>
+        <v>344</v>
       </c>
       <c r="S70" s="58"/>
       <c r="V70" s="69"/>
@@ -6776,43 +7057,43 @@
       <c r="B72" s="65"/>
       <c r="C72" s="52"/>
       <c r="D72" s="100" t="s">
-        <v>258</v>
+        <v>345</v>
       </c>
       <c r="E72" s="100" t="s">
-        <v>260</v>
+        <v>347</v>
       </c>
       <c r="F72" s="100"/>
       <c r="G72" s="100" t="s">
-        <v>300</v>
+        <v>349</v>
       </c>
       <c r="H72" s="100" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="I72" s="100" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="J72" s="100" t="s">
-        <v>532</v>
+        <v>463</v>
       </c>
       <c r="K72" s="100" t="s">
-        <v>328</v>
+        <v>469</v>
       </c>
       <c r="L72" s="100"/>
       <c r="M72" s="100" t="s">
-        <v>534</v>
+        <v>513</v>
       </c>
       <c r="N72" s="100" t="s">
-        <v>288</v>
+        <v>341</v>
       </c>
       <c r="O72" s="100" t="s">
-        <v>512</v>
+        <v>483</v>
       </c>
       <c r="P72" s="100"/>
       <c r="Q72" s="100" t="s">
-        <v>304</v>
+        <v>361</v>
       </c>
       <c r="R72" s="100" t="s">
-        <v>512</v>
+        <v>483</v>
       </c>
       <c r="S72" s="53"/>
       <c r="V72" s="69"/>
@@ -6836,13 +7117,13 @@
         <v>204</v>
       </c>
       <c r="H73" s="98" t="s">
-        <v>424</v>
+        <v>320</v>
       </c>
       <c r="I73" s="95" t="s">
-        <v>425</v>
+        <v>296</v>
       </c>
       <c r="J73" s="95" t="s">
-        <v>426</v>
+        <v>297</v>
       </c>
       <c r="K73" s="95" t="s">
         <v>217</v>
@@ -6851,13 +7132,13 @@
         <v>167</v>
       </c>
       <c r="M73" s="95" t="s">
-        <v>427</v>
+        <v>298</v>
       </c>
       <c r="N73" s="95" t="s">
         <v>215</v>
       </c>
       <c r="O73" s="95" t="s">
-        <v>415</v>
+        <v>288</v>
       </c>
       <c r="P73" s="95" t="s">
         <v>197</v>
@@ -6866,7 +7147,7 @@
         <v>198</v>
       </c>
       <c r="R73" s="95" t="s">
-        <v>415</v>
+        <v>288</v>
       </c>
       <c r="S73" s="54"/>
       <c r="V73" s="69"/>
@@ -6875,43 +7156,43 @@
       <c r="B74" s="67"/>
       <c r="C74" s="52"/>
       <c r="D74" s="101" t="s">
-        <v>259</v>
+        <v>346</v>
       </c>
       <c r="E74" s="101" t="s">
-        <v>261</v>
+        <v>348</v>
       </c>
       <c r="F74" s="101"/>
       <c r="G74" s="101" t="s">
-        <v>301</v>
+        <v>350</v>
       </c>
       <c r="H74" s="101" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="I74" s="101" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="J74" s="101" t="s">
-        <v>533</v>
+        <v>464</v>
       </c>
       <c r="K74" s="101" t="s">
-        <v>329</v>
+        <v>470</v>
       </c>
       <c r="L74" s="101"/>
       <c r="M74" s="101" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="N74" s="101" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="O74" s="101" t="s">
-        <v>513</v>
+        <v>484</v>
       </c>
       <c r="P74" s="101"/>
       <c r="Q74" s="101" t="s">
-        <v>305</v>
+        <v>362</v>
       </c>
       <c r="R74" s="101" t="s">
-        <v>513</v>
+        <v>484</v>
       </c>
       <c r="S74" s="58"/>
       <c r="V74" s="69"/>
@@ -6942,42 +7223,42 @@
       <c r="C76" s="52"/>
       <c r="D76" s="100"/>
       <c r="E76" s="100" t="s">
-        <v>346</v>
+        <v>515</v>
       </c>
       <c r="F76" s="100" t="s">
-        <v>314</v>
+        <v>517</v>
       </c>
       <c r="G76" s="100" t="s">
-        <v>512</v>
+        <v>483</v>
       </c>
       <c r="H76" s="100"/>
       <c r="I76" s="100" t="s">
-        <v>332</v>
+        <v>435</v>
       </c>
       <c r="J76" s="100" t="s">
-        <v>328</v>
+        <v>469</v>
       </c>
       <c r="K76" s="100" t="s">
-        <v>512</v>
+        <v>483</v>
       </c>
       <c r="L76" s="100"/>
       <c r="M76" s="100" t="s">
-        <v>312</v>
+        <v>491</v>
       </c>
       <c r="N76" s="100" t="s">
-        <v>366</v>
+        <v>519</v>
       </c>
       <c r="O76" s="100" t="s">
-        <v>352</v>
+        <v>411</v>
       </c>
       <c r="P76" s="100" t="s">
-        <v>268</v>
+        <v>329</v>
       </c>
       <c r="Q76" s="100" t="s">
-        <v>336</v>
+        <v>419</v>
       </c>
       <c r="R76" s="100" t="s">
-        <v>508</v>
+        <v>475</v>
       </c>
       <c r="S76" s="53"/>
       <c r="V76" s="69"/>
@@ -6998,7 +7279,7 @@
         <v>234</v>
       </c>
       <c r="G77" s="96" t="s">
-        <v>415</v>
+        <v>288</v>
       </c>
       <c r="H77" s="95" t="s">
         <v>197</v>
@@ -7010,7 +7291,7 @@
         <v>217</v>
       </c>
       <c r="K77" s="95" t="s">
-        <v>415</v>
+        <v>288</v>
       </c>
       <c r="L77" s="95" t="s">
         <v>167</v>
@@ -7031,7 +7312,7 @@
         <v>220</v>
       </c>
       <c r="R77" s="95" t="s">
-        <v>412</v>
+        <v>286</v>
       </c>
       <c r="S77" s="54"/>
       <c r="V77" s="69"/>
@@ -7041,42 +7322,42 @@
       <c r="C78" s="52"/>
       <c r="D78" s="101"/>
       <c r="E78" s="101" t="s">
-        <v>347</v>
+        <v>516</v>
       </c>
       <c r="F78" s="101" t="s">
-        <v>315</v>
+        <v>518</v>
       </c>
       <c r="G78" s="101" t="s">
-        <v>513</v>
+        <v>484</v>
       </c>
       <c r="H78" s="101"/>
       <c r="I78" s="101" t="s">
-        <v>333</v>
+        <v>436</v>
       </c>
       <c r="J78" s="101" t="s">
-        <v>329</v>
+        <v>470</v>
       </c>
       <c r="K78" s="101" t="s">
-        <v>513</v>
+        <v>484</v>
       </c>
       <c r="L78" s="101"/>
       <c r="M78" s="101" t="s">
-        <v>313</v>
+        <v>492</v>
       </c>
       <c r="N78" s="101" t="s">
-        <v>367</v>
+        <v>520</v>
       </c>
       <c r="O78" s="101" t="s">
-        <v>353</v>
+        <v>412</v>
       </c>
       <c r="P78" s="101" t="s">
-        <v>269</v>
+        <v>330</v>
       </c>
       <c r="Q78" s="101" t="s">
-        <v>337</v>
+        <v>420</v>
       </c>
       <c r="R78" s="101" t="s">
-        <v>509</v>
+        <v>476</v>
       </c>
       <c r="S78" s="58"/>
       <c r="V78" s="69"/>
@@ -7106,28 +7387,30 @@
       <c r="B80" s="65"/>
       <c r="C80" s="52"/>
       <c r="D80" s="100" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="E80" s="100" t="s">
-        <v>332</v>
+        <v>435</v>
       </c>
       <c r="F80" s="100"/>
       <c r="G80" s="100" t="s">
-        <v>492</v>
-      </c>
-      <c r="H80" s="100"/>
+        <v>437</v>
+      </c>
+      <c r="H80" s="100" t="s">
+        <v>439</v>
+      </c>
       <c r="I80" s="100"/>
       <c r="J80" s="100" t="s">
-        <v>338</v>
+        <v>441</v>
       </c>
       <c r="K80" s="100" t="s">
-        <v>304</v>
+        <v>361</v>
       </c>
       <c r="L80" s="100" t="s">
-        <v>270</v>
+        <v>443</v>
       </c>
       <c r="M80" s="100" t="s">
-        <v>264</v>
+        <v>445</v>
       </c>
       <c r="N80" s="100"/>
       <c r="O80" s="100"/>
@@ -7144,7 +7427,7 @@
       </c>
       <c r="C81" s="52"/>
       <c r="D81" s="98" t="s">
-        <v>428</v>
+        <v>321</v>
       </c>
       <c r="E81" s="95" t="s">
         <v>207</v>
@@ -7153,10 +7436,10 @@
         <v>197</v>
       </c>
       <c r="G81" s="96" t="s">
-        <v>399</v>
+        <v>274</v>
       </c>
       <c r="H81" s="95" t="s">
-        <v>400</v>
+        <v>275</v>
       </c>
       <c r="I81" s="95" t="s">
         <v>197</v>
@@ -7187,28 +7470,30 @@
       <c r="B82" s="67"/>
       <c r="C82" s="52"/>
       <c r="D82" s="101" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="E82" s="101" t="s">
-        <v>333</v>
+        <v>436</v>
       </c>
       <c r="F82" s="101"/>
       <c r="G82" s="101" t="s">
-        <v>493</v>
-      </c>
-      <c r="H82" s="101"/>
+        <v>438</v>
+      </c>
+      <c r="H82" s="101" t="s">
+        <v>440</v>
+      </c>
       <c r="I82" s="101"/>
       <c r="J82" s="101" t="s">
-        <v>339</v>
+        <v>442</v>
       </c>
       <c r="K82" s="101" t="s">
-        <v>305</v>
+        <v>362</v>
       </c>
       <c r="L82" s="101" t="s">
-        <v>271</v>
+        <v>444</v>
       </c>
       <c r="M82" s="101" t="s">
-        <v>265</v>
+        <v>446</v>
       </c>
       <c r="N82" s="101"/>
       <c r="O82" s="101"/>
@@ -7243,43 +7528,43 @@
       <c r="B84" s="65"/>
       <c r="C84" s="52"/>
       <c r="D84" s="100" t="s">
-        <v>256</v>
+        <v>343</v>
       </c>
       <c r="E84" s="100" t="s">
-        <v>258</v>
+        <v>345</v>
       </c>
       <c r="F84" s="100" t="s">
-        <v>260</v>
+        <v>347</v>
       </c>
       <c r="G84" s="100"/>
       <c r="H84" s="100" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="I84" s="100" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="J84" s="100" t="s">
-        <v>274</v>
+        <v>525</v>
       </c>
       <c r="K84" s="100" t="s">
-        <v>274</v>
+        <v>525</v>
       </c>
       <c r="L84" s="100"/>
       <c r="M84" s="100" t="s">
-        <v>300</v>
+        <v>349</v>
       </c>
       <c r="N84" s="100" t="s">
-        <v>280</v>
+        <v>351</v>
       </c>
       <c r="O84" s="100" t="s">
-        <v>352</v>
+        <v>411</v>
       </c>
       <c r="P84" s="100" t="s">
-        <v>268</v>
+        <v>329</v>
       </c>
       <c r="Q84" s="100"/>
       <c r="R84" s="100" t="s">
-        <v>322</v>
+        <v>527</v>
       </c>
       <c r="S84" s="53"/>
       <c r="V84" s="69"/>
@@ -7303,16 +7588,16 @@
         <v>186</v>
       </c>
       <c r="H85" s="95" t="s">
-        <v>429</v>
+        <v>299</v>
       </c>
       <c r="I85" s="95" t="s">
-        <v>429</v>
+        <v>299</v>
       </c>
       <c r="J85" s="95" t="s">
-        <v>430</v>
+        <v>300</v>
       </c>
       <c r="K85" s="95" t="s">
-        <v>430</v>
+        <v>300</v>
       </c>
       <c r="L85" s="95" t="s">
         <v>167</v>
@@ -7342,43 +7627,43 @@
       <c r="B86" s="67"/>
       <c r="C86" s="52"/>
       <c r="D86" s="101" t="s">
-        <v>257</v>
+        <v>344</v>
       </c>
       <c r="E86" s="101" t="s">
-        <v>259</v>
+        <v>346</v>
       </c>
       <c r="F86" s="101" t="s">
-        <v>261</v>
+        <v>348</v>
       </c>
       <c r="G86" s="101"/>
       <c r="H86" s="101" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="I86" s="101" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="J86" s="101" t="s">
-        <v>275</v>
+        <v>526</v>
       </c>
       <c r="K86" s="101" t="s">
-        <v>275</v>
+        <v>526</v>
       </c>
       <c r="L86" s="101"/>
       <c r="M86" s="101" t="s">
-        <v>301</v>
+        <v>350</v>
       </c>
       <c r="N86" s="101" t="s">
-        <v>281</v>
+        <v>352</v>
       </c>
       <c r="O86" s="101" t="s">
-        <v>353</v>
+        <v>412</v>
       </c>
       <c r="P86" s="101" t="s">
-        <v>269</v>
+        <v>330</v>
       </c>
       <c r="Q86" s="101"/>
       <c r="R86" s="101" t="s">
-        <v>323</v>
+        <v>528</v>
       </c>
       <c r="S86" s="58"/>
       <c r="V86" s="69"/>
@@ -7408,43 +7693,43 @@
       <c r="B88" s="65"/>
       <c r="C88" s="52"/>
       <c r="D88" s="100" t="s">
-        <v>356</v>
+        <v>529</v>
       </c>
       <c r="E88" s="100" t="s">
-        <v>282</v>
+        <v>531</v>
       </c>
       <c r="F88" s="100" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="G88" s="100"/>
       <c r="H88" s="100" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="I88" s="100"/>
       <c r="J88" s="100" t="s">
-        <v>304</v>
+        <v>361</v>
       </c>
       <c r="K88" s="100"/>
       <c r="L88" s="100" t="s">
-        <v>518</v>
+        <v>495</v>
       </c>
       <c r="M88" s="100" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="N88" s="100" t="s">
-        <v>362</v>
+        <v>501</v>
       </c>
       <c r="O88" s="100" t="s">
-        <v>294</v>
+        <v>539</v>
       </c>
       <c r="P88" s="100" t="s">
-        <v>368</v>
+        <v>541</v>
       </c>
       <c r="Q88" s="100" t="s">
-        <v>268</v>
+        <v>329</v>
       </c>
       <c r="R88" s="100" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="S88" s="53"/>
       <c r="V88" s="69"/>
@@ -7462,13 +7747,13 @@
         <v>199</v>
       </c>
       <c r="F89" s="98" t="s">
-        <v>431</v>
+        <v>322</v>
       </c>
       <c r="G89" s="96" t="s">
         <v>167</v>
       </c>
       <c r="H89" s="95" t="s">
-        <v>432</v>
+        <v>301</v>
       </c>
       <c r="I89" s="95" t="s">
         <v>197</v>
@@ -7480,10 +7765,10 @@
         <v>197</v>
       </c>
       <c r="L89" s="95" t="s">
-        <v>419</v>
+        <v>291</v>
       </c>
       <c r="M89" s="95" t="s">
-        <v>433</v>
+        <v>302</v>
       </c>
       <c r="N89" s="95" t="s">
         <v>211</v>
@@ -7495,10 +7780,10 @@
         <v>249</v>
       </c>
       <c r="Q89" s="95" t="s">
-        <v>434</v>
+        <v>303</v>
       </c>
       <c r="R89" s="95" t="s">
-        <v>435</v>
+        <v>304</v>
       </c>
       <c r="S89" s="54"/>
       <c r="V89" s="69"/>
@@ -7507,43 +7792,43 @@
       <c r="B90" s="67"/>
       <c r="C90" s="52"/>
       <c r="D90" s="101" t="s">
-        <v>357</v>
+        <v>530</v>
       </c>
       <c r="E90" s="101" t="s">
-        <v>283</v>
+        <v>532</v>
       </c>
       <c r="F90" s="101" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="G90" s="101"/>
       <c r="H90" s="101" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="I90" s="101"/>
       <c r="J90" s="101" t="s">
-        <v>305</v>
+        <v>362</v>
       </c>
       <c r="K90" s="101"/>
       <c r="L90" s="101" t="s">
-        <v>519</v>
+        <v>496</v>
       </c>
       <c r="M90" s="101" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="N90" s="101" t="s">
-        <v>363</v>
+        <v>502</v>
       </c>
       <c r="O90" s="101" t="s">
-        <v>295</v>
+        <v>540</v>
       </c>
       <c r="P90" s="101" t="s">
-        <v>369</v>
+        <v>542</v>
       </c>
       <c r="Q90" s="101" t="s">
-        <v>269</v>
+        <v>330</v>
       </c>
       <c r="R90" s="101" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="S90" s="58"/>
       <c r="V90" s="69"/>
@@ -7574,40 +7859,42 @@
       <c r="C92" s="52"/>
       <c r="D92" s="100"/>
       <c r="E92" s="100" t="s">
-        <v>316</v>
+        <v>545</v>
       </c>
       <c r="F92" s="100" t="s">
-        <v>318</v>
+        <v>481</v>
       </c>
       <c r="G92" s="100" t="s">
-        <v>352</v>
+        <v>411</v>
       </c>
       <c r="H92" s="100" t="s">
-        <v>274</v>
+        <v>525</v>
       </c>
       <c r="I92" s="100"/>
       <c r="J92" s="100" t="s">
-        <v>312</v>
+        <v>491</v>
       </c>
       <c r="K92" s="100" t="s">
-        <v>338</v>
+        <v>441</v>
       </c>
       <c r="L92" s="100" t="s">
-        <v>266</v>
+        <v>393</v>
       </c>
       <c r="M92" s="100" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="N92" s="100"/>
       <c r="O92" s="100" t="s">
-        <v>514</v>
+        <v>485</v>
       </c>
       <c r="P92" s="100" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q92" s="100"/>
+        <v>541</v>
+      </c>
+      <c r="Q92" s="100" t="s">
+        <v>549</v>
+      </c>
       <c r="R92" s="100" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="S92" s="53"/>
       <c r="V92" s="69"/>
@@ -7631,7 +7918,7 @@
         <v>205</v>
       </c>
       <c r="H93" s="95" t="s">
-        <v>430</v>
+        <v>300</v>
       </c>
       <c r="I93" s="95" t="s">
         <v>167</v>
@@ -7646,22 +7933,22 @@
         <v>170</v>
       </c>
       <c r="M93" s="98" t="s">
-        <v>436</v>
+        <v>323</v>
       </c>
       <c r="N93" s="95" t="s">
         <v>167</v>
       </c>
       <c r="O93" s="95" t="s">
-        <v>416</v>
+        <v>289</v>
       </c>
       <c r="P93" s="95" t="s">
         <v>249</v>
       </c>
       <c r="Q93" s="98" t="s">
-        <v>437</v>
+        <v>324</v>
       </c>
       <c r="R93" s="95" t="s">
-        <v>438</v>
+        <v>305</v>
       </c>
       <c r="S93" s="54"/>
       <c r="V93" s="69"/>
@@ -7671,40 +7958,42 @@
       <c r="C94" s="52"/>
       <c r="D94" s="101"/>
       <c r="E94" s="101" t="s">
-        <v>317</v>
+        <v>546</v>
       </c>
       <c r="F94" s="101" t="s">
-        <v>319</v>
+        <v>482</v>
       </c>
       <c r="G94" s="101" t="s">
-        <v>353</v>
+        <v>412</v>
       </c>
       <c r="H94" s="101" t="s">
-        <v>275</v>
+        <v>526</v>
       </c>
       <c r="I94" s="101"/>
       <c r="J94" s="101" t="s">
-        <v>313</v>
+        <v>492</v>
       </c>
       <c r="K94" s="101" t="s">
-        <v>339</v>
+        <v>442</v>
       </c>
       <c r="L94" s="101" t="s">
-        <v>267</v>
+        <v>394</v>
       </c>
       <c r="M94" s="101" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N94" s="101"/>
       <c r="O94" s="101" t="s">
-        <v>515</v>
+        <v>486</v>
       </c>
       <c r="P94" s="101" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q94" s="101"/>
+        <v>542</v>
+      </c>
+      <c r="Q94" s="101" t="s">
+        <v>550</v>
+      </c>
       <c r="R94" s="101" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="S94" s="58"/>
       <c r="V94" s="69"/>
@@ -7735,39 +8024,41 @@
       <c r="C96" s="52"/>
       <c r="D96" s="100"/>
       <c r="E96" s="100" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F96" s="100" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G96" s="100" t="s">
-        <v>338</v>
-      </c>
-      <c r="H96" s="100"/>
+        <v>441</v>
+      </c>
+      <c r="H96" s="100" t="s">
+        <v>557</v>
+      </c>
       <c r="I96" s="100"/>
       <c r="J96" s="100" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="K96" s="100" t="s">
-        <v>358</v>
+        <v>559</v>
       </c>
       <c r="L96" s="100" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="M96" s="100" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="N96" s="100" t="s">
-        <v>276</v>
+        <v>565</v>
       </c>
       <c r="O96" s="100" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="P96" s="100" t="s">
-        <v>344</v>
+        <v>423</v>
       </c>
       <c r="Q96" s="100" t="s">
-        <v>274</v>
+        <v>525</v>
       </c>
       <c r="R96" s="100"/>
       <c r="S96" s="53"/>
@@ -7783,16 +8074,16 @@
         <v>167</v>
       </c>
       <c r="E97" s="95" t="s">
-        <v>439</v>
+        <v>306</v>
       </c>
       <c r="F97" s="95" t="s">
-        <v>440</v>
+        <v>307</v>
       </c>
       <c r="G97" s="96" t="s">
-        <v>441</v>
+        <v>308</v>
       </c>
       <c r="H97" s="98" t="s">
-        <v>442</v>
+        <v>325</v>
       </c>
       <c r="I97" s="95" t="s">
         <v>167</v>
@@ -7804,22 +8095,22 @@
         <v>222</v>
       </c>
       <c r="L97" s="95" t="s">
-        <v>443</v>
+        <v>309</v>
       </c>
       <c r="M97" s="95" t="s">
-        <v>444</v>
+        <v>310</v>
       </c>
       <c r="N97" s="95" t="s">
         <v>229</v>
       </c>
       <c r="O97" s="98" t="s">
-        <v>445</v>
+        <v>326</v>
       </c>
       <c r="P97" s="95" t="s">
         <v>226</v>
       </c>
       <c r="Q97" s="95" t="s">
-        <v>430</v>
+        <v>300</v>
       </c>
       <c r="R97" s="98" t="s">
         <v>171</v>
@@ -7832,39 +8123,41 @@
       <c r="C98" s="52"/>
       <c r="D98" s="101"/>
       <c r="E98" s="101" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F98" s="101" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G98" s="101" t="s">
-        <v>339</v>
-      </c>
-      <c r="H98" s="101"/>
+        <v>442</v>
+      </c>
+      <c r="H98" s="101" t="s">
+        <v>558</v>
+      </c>
       <c r="I98" s="101"/>
       <c r="J98" s="101" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="K98" s="101" t="s">
-        <v>359</v>
+        <v>560</v>
       </c>
       <c r="L98" s="101" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="M98" s="101" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="N98" s="101" t="s">
-        <v>277</v>
+        <v>566</v>
       </c>
       <c r="O98" s="101" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="P98" s="101" t="s">
-        <v>345</v>
+        <v>424</v>
       </c>
       <c r="Q98" s="101" t="s">
-        <v>275</v>
+        <v>526</v>
       </c>
       <c r="R98" s="101"/>
       <c r="S98" s="58"/>
